--- a/testWrapper/MsTestWrapper/srcTest/listView.xlsx
+++ b/testWrapper/MsTestWrapper/srcTest/listView.xlsx
@@ -12,36 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2r3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3we</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wer1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3wer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34wr</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3r</t>
   </si>
 </sst>
 </file>
@@ -92,37 +71,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="11">
+      <c r="K11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="12">
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="K13" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/testWrapper/MsTestWrapper/srcTest/listView.xlsx
+++ b/testWrapper/MsTestWrapper/srcTest/listView.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t xml:space="preserve">1</t>
   </si>
@@ -20,7 +20,61 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24dfgd23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfg233</t>
+  </si>
+  <si>
     <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2dgd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2dgf33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2234433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23244dfgd23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">��dfg233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2342dgd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2dgf33��</t>
   </si>
 </sst>
 </file>
@@ -71,19 +125,148 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="11">
-      <c r="K11" t="s">
-        <v>0</v>
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
-      <c r="K12" t="s">
-        <v>1</v>
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="K13" t="s">
-        <v>2</v>
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/testWrapper/MsTestWrapper/srcTest/listView.xlsx
+++ b/testWrapper/MsTestWrapper/srcTest/listView.xlsx
@@ -12,36 +12,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24dfgd23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfg233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
   <si>
     <t xml:space="preserve">34</t>
   </si>
   <si>
-    <t xml:space="preserve">2r3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3we</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wer1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3wer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34wr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3r</t>
+    <t xml:space="preserve">2dgd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2dgf33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2234433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23244dfgd23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">��dfg233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2342dgd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2dgf33��</t>
   </si>
 </sst>
 </file>
@@ -94,35 +127,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
